--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.2707042862804</v>
+        <v>152.3574695599688</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.9819747552142</v>
+        <v>208.4622113890307</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.1907126031867</v>
+        <v>188.5668705126723</v>
       </c>
       <c r="AD2" t="n">
-        <v>113270.7042862804</v>
+        <v>152357.4695599689</v>
       </c>
       <c r="AE2" t="n">
-        <v>154981.9747552142</v>
+        <v>208462.2113890307</v>
       </c>
       <c r="AF2" t="n">
         <v>1.956855132161095e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>140190.7126031868</v>
+        <v>188566.8705126723</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.9517601606554</v>
+        <v>112.2500041639956</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.4982578251416</v>
+        <v>153.5854078177935</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.6661433941446</v>
+        <v>138.927432054179</v>
       </c>
       <c r="AD3" t="n">
-        <v>82951.76016065539</v>
+        <v>112250.0041639956</v>
       </c>
       <c r="AE3" t="n">
-        <v>113498.2578251416</v>
+        <v>153585.4078177935</v>
       </c>
       <c r="AF3" t="n">
         <v>2.551618939007706e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.15234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>102666.1433941446</v>
+        <v>138927.432054179</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.29786668983273</v>
+        <v>112.3736795589375</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.9718160475042</v>
+        <v>153.7546259493263</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.0945058844082</v>
+        <v>139.0805002447375</v>
       </c>
       <c r="AD2" t="n">
-        <v>83297.86668983274</v>
+        <v>112373.6795589375</v>
       </c>
       <c r="AE2" t="n">
-        <v>113971.8160475042</v>
+        <v>153754.6259493263</v>
       </c>
       <c r="AF2" t="n">
         <v>2.608716617459774e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.58203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>103094.5058844082</v>
+        <v>139080.5002447375</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.33111876151158</v>
+        <v>110.3054464041311</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.2808247651816</v>
+        <v>150.9247781029145</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.6603390332397</v>
+        <v>136.5207291050699</v>
       </c>
       <c r="AD3" t="n">
-        <v>81331.11876151158</v>
+        <v>110305.4464041311</v>
       </c>
       <c r="AE3" t="n">
-        <v>111280.8247651816</v>
+        <v>150924.7781029145</v>
       </c>
       <c r="AF3" t="n">
         <v>2.784317516610698e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.165364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>100660.3390332397</v>
+        <v>136520.7291050699</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.14546017117459</v>
+        <v>117.1787510014302</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.9727514262893</v>
+        <v>160.3291366817324</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.331843220028</v>
+        <v>145.0275489002286</v>
       </c>
       <c r="AD2" t="n">
-        <v>89145.46017117459</v>
+        <v>117178.7510014302</v>
       </c>
       <c r="AE2" t="n">
-        <v>121972.7514262894</v>
+        <v>160329.1366817324</v>
       </c>
       <c r="AF2" t="n">
         <v>3.322207304488728e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>110331.843220028</v>
+        <v>145027.5489002286</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.86487079645708</v>
+        <v>117.7609858915913</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.2746396131002</v>
+        <v>161.125776144841</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.84562137637373</v>
+        <v>145.7481582110688</v>
       </c>
       <c r="AD2" t="n">
-        <v>79864.87079645708</v>
+        <v>117760.9858915913</v>
       </c>
       <c r="AE2" t="n">
-        <v>109274.6396131002</v>
+        <v>161125.776144841</v>
       </c>
       <c r="AF2" t="n">
         <v>3.13500884764886e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.62109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>98845.62137637373</v>
+        <v>145748.1582110688</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.09507260934605</v>
+        <v>136.0327255663498</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.5862501101102</v>
+        <v>186.1259764600963</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.6460886961348</v>
+        <v>168.3623744962457</v>
       </c>
       <c r="AD2" t="n">
-        <v>99095.07260934605</v>
+        <v>136032.7255663498</v>
       </c>
       <c r="AE2" t="n">
-        <v>135586.2501101102</v>
+        <v>186125.9764600963</v>
       </c>
       <c r="AF2" t="n">
         <v>3.403502747122509e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.06640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>122646.0886961348</v>
+        <v>168362.3744962457</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.2574610929463</v>
+        <v>124.059010469472</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.6530195610464</v>
+        <v>169.7430112215278</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.5198190977116</v>
+        <v>153.5429764664048</v>
       </c>
       <c r="AD2" t="n">
-        <v>85257.46109294629</v>
+        <v>124059.010469472</v>
       </c>
       <c r="AE2" t="n">
-        <v>116653.0195610464</v>
+        <v>169743.0112215278</v>
       </c>
       <c r="AF2" t="n">
         <v>2.440363880188379e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.868489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>105519.8190977116</v>
+        <v>153542.9764664048</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.78720220830014</v>
+        <v>110.8466684970756</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.904858258059</v>
+        <v>151.6653020475144</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.2248156453936</v>
+        <v>137.1905784837294</v>
       </c>
       <c r="AD3" t="n">
-        <v>81787.20220830015</v>
+        <v>110846.6684970756</v>
       </c>
       <c r="AE3" t="n">
-        <v>111904.858258059</v>
+        <v>151665.3020475144</v>
       </c>
       <c r="AF3" t="n">
         <v>2.716978266253358e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.165364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>101224.8156453936</v>
+        <v>137190.5784837294</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.84848693680156</v>
+        <v>145.7619133336626</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.6171048312286</v>
+        <v>199.4378803847984</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.5785600894837</v>
+        <v>180.4038089937529</v>
       </c>
       <c r="AD2" t="n">
-        <v>99848.48693680156</v>
+        <v>145761.9133336626</v>
       </c>
       <c r="AE2" t="n">
-        <v>136617.1048312286</v>
+        <v>199437.8803847984</v>
       </c>
       <c r="AF2" t="n">
         <v>3.413612705311784e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.802083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>123578.5600894837</v>
+        <v>180403.8089937529</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.79739143661286</v>
+        <v>109.4954029796872</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.5505554928678</v>
+        <v>149.8164409529972</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.9997656353359</v>
+        <v>135.5181700971794</v>
       </c>
       <c r="AD2" t="n">
-        <v>80797.39143661286</v>
+        <v>109495.4029796872</v>
       </c>
       <c r="AE2" t="n">
-        <v>110550.5554928678</v>
+        <v>149816.4409529972</v>
       </c>
       <c r="AF2" t="n">
         <v>2.916990122473986e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.399739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>99999.76563533591</v>
+        <v>135518.1700971794</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.63594413383801</v>
+        <v>109.3339556769123</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.329656170659</v>
+        <v>149.5955416307884</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.79994863440454</v>
+        <v>135.318353096248</v>
       </c>
       <c r="AD3" t="n">
-        <v>80635.94413383801</v>
+        <v>109333.9556769123</v>
       </c>
       <c r="AE3" t="n">
-        <v>110329.656170659</v>
+        <v>149595.5416307884</v>
       </c>
       <c r="AF3" t="n">
         <v>2.940997681447719e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.34765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>99799.94863440454</v>
+        <v>135318.3530962481</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.16239685663341</v>
+        <v>111.0483483492184</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.418216128328</v>
+        <v>151.9412493187032</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.6891793610266</v>
+        <v>137.4401897346504</v>
       </c>
       <c r="AD2" t="n">
-        <v>82162.39685663341</v>
+        <v>111048.3483492184</v>
       </c>
       <c r="AE2" t="n">
-        <v>112418.216128328</v>
+        <v>151941.2493187032</v>
       </c>
       <c r="AF2" t="n">
         <v>2.730152496684704e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.458333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>101689.1793610266</v>
+        <v>137440.1897346504</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.36995409145509</v>
+        <v>110.2559055840401</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.3339609769041</v>
+        <v>150.8569941672793</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.7084039994926</v>
+        <v>136.4594143731164</v>
       </c>
       <c r="AD3" t="n">
-        <v>81369.95409145509</v>
+        <v>110255.9055840401</v>
       </c>
       <c r="AE3" t="n">
-        <v>111333.9609769041</v>
+        <v>150856.9941672793</v>
       </c>
       <c r="AF3" t="n">
         <v>2.806826354981125e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.282552083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>100708.4039994926</v>
+        <v>136459.4143731164</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.1726650056619</v>
+        <v>139.2240049127461</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.0606595667701</v>
+        <v>190.4924256511419</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.9797825835982</v>
+        <v>172.3120959048492</v>
       </c>
       <c r="AD2" t="n">
-        <v>100172.6650056619</v>
+        <v>139224.0049127461</v>
       </c>
       <c r="AE2" t="n">
-        <v>137060.6595667701</v>
+        <v>190492.4256511419</v>
       </c>
       <c r="AF2" t="n">
         <v>2.113046025715293e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.584635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>123979.7825835982</v>
+        <v>172312.0959048492</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.72216840927145</v>
+        <v>111.9433535318802</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.184120262025</v>
+        <v>153.1658348944624</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.381986679157</v>
+        <v>138.5479025817762</v>
       </c>
       <c r="AD3" t="n">
-        <v>82722.16840927144</v>
+        <v>111943.3535318802</v>
       </c>
       <c r="AE3" t="n">
-        <v>113184.120262025</v>
+        <v>153165.8348944624</v>
       </c>
       <c r="AF3" t="n">
         <v>2.591548626984372e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.184895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>102381.986679157</v>
+        <v>138547.9025817761</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.05709747477025</v>
+        <v>108.6504888611688</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.5376526348106</v>
+        <v>148.6603921810608</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.08353280443329</v>
+        <v>134.4724529975116</v>
       </c>
       <c r="AD2" t="n">
-        <v>80057.09747477024</v>
+        <v>108650.4888611688</v>
       </c>
       <c r="AE2" t="n">
-        <v>109537.6526348106</v>
+        <v>148660.3921810608</v>
       </c>
       <c r="AF2" t="n">
         <v>3.070525888650797e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.50390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>99083.53280443329</v>
+        <v>134472.4529975116</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.62673186856829</v>
+        <v>117.1962999243742</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.9488074260149</v>
+        <v>160.3531478923082</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.55088615591536</v>
+        <v>145.049268514567</v>
       </c>
       <c r="AD2" t="n">
-        <v>79626.73186856828</v>
+        <v>117196.2999243742</v>
       </c>
       <c r="AE2" t="n">
-        <v>108948.8074260149</v>
+        <v>160353.1478923082</v>
       </c>
       <c r="AF2" t="n">
         <v>3.265815565701888e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>98550.88615591536</v>
+        <v>145049.2685145671</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.19068167218492</v>
+        <v>126.4145513427936</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.0346254790035</v>
+        <v>172.9659661635339</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.3878120999919</v>
+        <v>156.4583371121925</v>
       </c>
       <c r="AD2" t="n">
-        <v>89190.68167218492</v>
+        <v>126414.5513427936</v>
       </c>
       <c r="AE2" t="n">
-        <v>122034.6254790035</v>
+        <v>172965.9661635339</v>
       </c>
       <c r="AF2" t="n">
         <v>3.383709181278534e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.5390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>110387.8120999919</v>
+        <v>156458.3371121925</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.4242479255103</v>
+        <v>165.94550537875</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.7697687544757</v>
+        <v>227.0539614581102</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.0443732804169</v>
+        <v>205.3842500488499</v>
       </c>
       <c r="AD2" t="n">
-        <v>120424.2479255103</v>
+        <v>165945.50537875</v>
       </c>
       <c r="AE2" t="n">
-        <v>164769.7687544757</v>
+        <v>227053.9614581102</v>
       </c>
       <c r="AF2" t="n">
         <v>3.310667014331043e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.18880208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>149044.3732804169</v>
+        <v>205384.2500488499</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.23686628907764</v>
+        <v>110.0308520580244</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.1518643742719</v>
+        <v>150.5490660043239</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.5436864410414</v>
+        <v>136.1808744418535</v>
       </c>
       <c r="AD2" t="n">
-        <v>81236.86628907763</v>
+        <v>110030.8520580244</v>
       </c>
       <c r="AE2" t="n">
-        <v>111151.8643742719</v>
+        <v>150549.0660043239</v>
       </c>
       <c r="AF2" t="n">
         <v>2.845475873662172e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.3671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>100543.6864410414</v>
+        <v>136180.8744418535</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.87260708534633</v>
+        <v>109.6665928542931</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.6534688617451</v>
+        <v>150.0506704917971</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.0928570967274</v>
+        <v>135.7300450975396</v>
       </c>
       <c r="AD3" t="n">
-        <v>80872.60708534633</v>
+        <v>109666.5928542931</v>
       </c>
       <c r="AE3" t="n">
-        <v>110653.4688617451</v>
+        <v>150050.6704917971</v>
       </c>
       <c r="AF3" t="n">
         <v>2.886119563683664e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.282552083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>100092.8570967274</v>
+        <v>135730.0450975396</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.58011842187766</v>
+        <v>126.7559504118334</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.5134229557553</v>
+        <v>173.4330834312578</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.7710892561596</v>
+        <v>156.8808733634883</v>
       </c>
       <c r="AD2" t="n">
-        <v>97580.11842187766</v>
+        <v>126755.9504118334</v>
       </c>
       <c r="AE2" t="n">
-        <v>133513.4229557553</v>
+        <v>173433.0834312578</v>
       </c>
       <c r="AF2" t="n">
         <v>2.267120589245031e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.2265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>120771.0892561596</v>
+        <v>156880.8733634883</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.33084524819289</v>
+        <v>111.4725118193678</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.6486946490781</v>
+        <v>152.5216084913329</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.897661335235</v>
+        <v>137.9651602423837</v>
       </c>
       <c r="AD3" t="n">
-        <v>82330.84524819288</v>
+        <v>111472.5118193678</v>
       </c>
       <c r="AE3" t="n">
-        <v>112648.6946490781</v>
+        <v>152521.6084913329</v>
       </c>
       <c r="AF3" t="n">
         <v>2.64629882200599e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.19140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>101897.661335235</v>
+        <v>137965.1602423837</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.519662426202</v>
+        <v>206.6645241837005</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.684130824055</v>
+        <v>282.7675193833419</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.7676102682839</v>
+        <v>255.7805842001849</v>
       </c>
       <c r="AD2" t="n">
-        <v>152519.662426202</v>
+        <v>206664.5241837005</v>
       </c>
       <c r="AE2" t="n">
-        <v>208684.130824055</v>
+        <v>282767.5193833419</v>
       </c>
       <c r="AF2" t="n">
         <v>3.02818601679376e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.11848958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>188767.6102682839</v>
+        <v>255780.5842001849</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.70433659371125</v>
+        <v>117.4426026169881</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.0549896346343</v>
+        <v>160.6901501024503</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.64693448357185</v>
+        <v>145.3541077067588</v>
       </c>
       <c r="AD2" t="n">
-        <v>79704.33659371125</v>
+        <v>117442.6026169881</v>
       </c>
       <c r="AE2" t="n">
-        <v>109054.9896346343</v>
+        <v>160690.1501024503</v>
       </c>
       <c r="AF2" t="n">
         <v>3.201849279667128e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.764322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>98646.93448357185</v>
+        <v>145354.1077067588</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.37099255447407</v>
+        <v>108.9685165941358</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.9671377309348</v>
+        <v>149.0955317556993</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.4720284457696</v>
+        <v>134.8660634618691</v>
       </c>
       <c r="AD2" t="n">
-        <v>80370.99255447407</v>
+        <v>108968.5165941358</v>
       </c>
       <c r="AE2" t="n">
-        <v>109967.1377309348</v>
+        <v>149095.5317556993</v>
       </c>
       <c r="AF2" t="n">
         <v>2.996946890475989e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.432291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>99472.0284457696</v>
+        <v>134866.0634618691</v>
       </c>
     </row>
   </sheetData>
